--- a/docs/access/masanori.xlsx
+++ b/docs/access/masanori.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sem3171\claude-test\docs\access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED2BF1-DE21-4DE2-B144-954E7A66D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD6983-D130-4912-80E3-483B39A0441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="1590" windowWidth="19440" windowHeight="13920" activeTab="1" xr2:uid="{689D7969-6755-41E4-A731-8FE585C52E8C}"/>
+    <workbookView xWindow="-19320" yWindow="1590" windowWidth="19440" windowHeight="13920" activeTab="2" xr2:uid="{689D7969-6755-41E4-A731-8FE585C52E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_生産実績" sheetId="1" r:id="rId1"/>
     <sheet name="calendar " sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="721">
   <si>
     <t>DoCmd.OpenQuery "t_作成_pc_生産実績_日別集計"</t>
   </si>
@@ -280,6 +281,1926 @@
   </si>
   <si>
     <t>2026/03</t>
+  </si>
+  <si>
+    <t>転記日付</t>
+  </si>
+  <si>
+    <t>ネットワーク・指図番号</t>
+  </si>
+  <si>
+    <t>品目コード</t>
+  </si>
+  <si>
+    <t>品目テキスト</t>
+  </si>
+  <si>
+    <t>計画数</t>
+  </si>
+  <si>
+    <t>完成数</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>mrp管理者</t>
+  </si>
+  <si>
+    <t>50119965</t>
+  </si>
+  <si>
+    <t>PZZA0537302</t>
+  </si>
+  <si>
+    <t>IK-5373A S02</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>50119401</t>
+  </si>
+  <si>
+    <t>P0A568802</t>
+  </si>
+  <si>
+    <t>WK-5688A U02 400A CTRL(J)</t>
+  </si>
+  <si>
+    <t>50120091</t>
+  </si>
+  <si>
+    <t>P0A611800</t>
+  </si>
+  <si>
+    <t>WK-6118     CO2 CONNECT</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>50119925</t>
+  </si>
+  <si>
+    <t>P0A530800</t>
+  </si>
+  <si>
+    <t>IK-5308 D (F) TOTAL CTRL</t>
+  </si>
+  <si>
+    <t>50120269</t>
+  </si>
+  <si>
+    <t>P00A0739123</t>
+  </si>
+  <si>
+    <t>IK-7391B U23</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>50119974</t>
+  </si>
+  <si>
+    <t>PZZA0109375</t>
+  </si>
+  <si>
+    <t>GK-1093B U75 4V</t>
+  </si>
+  <si>
+    <t>50119973</t>
+  </si>
+  <si>
+    <t>PZZA0109374</t>
+  </si>
+  <si>
+    <t>GK-1093B U74 60MV</t>
+  </si>
+  <si>
+    <t>50119803</t>
+  </si>
+  <si>
+    <t>P0A603500</t>
+  </si>
+  <si>
+    <t>WK-6035A     PWM.PCB</t>
+  </si>
+  <si>
+    <t>50119360</t>
+  </si>
+  <si>
+    <t>P0A559400</t>
+  </si>
+  <si>
+    <t>WK-5594A     TRANS TAP</t>
+  </si>
+  <si>
+    <t>50117923</t>
+  </si>
+  <si>
+    <t>P0A467500</t>
+  </si>
+  <si>
+    <t>MK-4675   LD OPEN DET.PCB</t>
+  </si>
+  <si>
+    <t>50119939</t>
+  </si>
+  <si>
+    <t>P00A0764300</t>
+  </si>
+  <si>
+    <t>IK-7643A CNVﾌｨﾙﾀ/出力 PCB</t>
+  </si>
+  <si>
+    <t>50119944</t>
+  </si>
+  <si>
+    <t>P00A0734416</t>
+  </si>
+  <si>
+    <t>IK-7344B U16</t>
+  </si>
+  <si>
+    <t>50119706</t>
+  </si>
+  <si>
+    <t>P00A0719700</t>
+  </si>
+  <si>
+    <t>WK-7197A KP CTRL</t>
+  </si>
+  <si>
+    <t>50120015</t>
+  </si>
+  <si>
+    <t>P0A557000</t>
+  </si>
+  <si>
+    <t>WK-5570A     2ND_IGBT</t>
+  </si>
+  <si>
+    <t>50119920</t>
+  </si>
+  <si>
+    <t>P0A536700</t>
+  </si>
+  <si>
+    <t>CK-5367 B 48V25  MAIN PC1</t>
+  </si>
+  <si>
+    <t>50119943</t>
+  </si>
+  <si>
+    <t>P00A0734300</t>
+  </si>
+  <si>
+    <t>IK-7343  ACV検出PCB</t>
+  </si>
+  <si>
+    <t>50119952</t>
+  </si>
+  <si>
+    <t>P0A618402</t>
+  </si>
+  <si>
+    <t>GK-6184 S02 I SENS PCB</t>
+  </si>
+  <si>
+    <t>50119922</t>
+  </si>
+  <si>
+    <t>P0A536703</t>
+  </si>
+  <si>
+    <t>CK-5367BU03 4825(06.2 JH)</t>
+  </si>
+  <si>
+    <t>50119921</t>
+  </si>
+  <si>
+    <t>P0A360500</t>
+  </si>
+  <si>
+    <t>IK-3605A   SPI I/O PCB</t>
+  </si>
+  <si>
+    <t>50119983</t>
+  </si>
+  <si>
+    <t>P0A230302</t>
+  </si>
+  <si>
+    <t>WK-2303B U02 SEQ(21ECD)</t>
+  </si>
+  <si>
+    <t>50119747</t>
+  </si>
+  <si>
+    <t>P00A0728602</t>
+  </si>
+  <si>
+    <t>WK-7286B U02 500A CNTL</t>
+  </si>
+  <si>
+    <t>50120005</t>
+  </si>
+  <si>
+    <t>P00A0716000</t>
+  </si>
+  <si>
+    <t>IK-7160C Drive PCB</t>
+  </si>
+  <si>
+    <t>50119980</t>
+  </si>
+  <si>
+    <t>P00A0707800</t>
+  </si>
+  <si>
+    <t>DK-7078 SW BOARD</t>
+  </si>
+  <si>
+    <t>50119660</t>
+  </si>
+  <si>
+    <t>P0A624400</t>
+  </si>
+  <si>
+    <t>WK-6244      SR500 THY_G</t>
+  </si>
+  <si>
+    <t>50119941</t>
+  </si>
+  <si>
+    <t>97K129003</t>
+  </si>
+  <si>
+    <t>MK-1290 S03 P0A567500</t>
+  </si>
+  <si>
+    <t>50119968</t>
+  </si>
+  <si>
+    <t>PZZA0618416</t>
+  </si>
+  <si>
+    <t>GK-6184 U16  ISENS</t>
+  </si>
+  <si>
+    <t>50119940</t>
+  </si>
+  <si>
+    <t>97K050004</t>
+  </si>
+  <si>
+    <t>MK-500C S04 PZZA1050004</t>
+  </si>
+  <si>
+    <t>50119744</t>
+  </si>
+  <si>
+    <t>P00A0733700</t>
+  </si>
+  <si>
+    <t>WK-7337 2ndIGBT SNUB RoHS</t>
+  </si>
+  <si>
+    <t>50119861</t>
+  </si>
+  <si>
+    <t>P00A0745800</t>
+  </si>
+  <si>
+    <t>WK-7458A     CTRL REACH</t>
+  </si>
+  <si>
+    <t>50120006</t>
+  </si>
+  <si>
+    <t>P00A0766200</t>
+  </si>
+  <si>
+    <t>PK-7662A CONNECTION PCB</t>
+  </si>
+  <si>
+    <t>50118867</t>
+  </si>
+  <si>
+    <t>P0A222803</t>
+  </si>
+  <si>
+    <t>MK-2228E U03 ｼﾝｸﾞﾙﾊﾟﾙｽ</t>
+  </si>
+  <si>
+    <t>50119152</t>
+  </si>
+  <si>
+    <t>P0A222800</t>
+  </si>
+  <si>
+    <t>MK-2228E    PHASE CONTRL</t>
+  </si>
+  <si>
+    <t>50119579</t>
+  </si>
+  <si>
+    <t>P00A0800301</t>
+  </si>
+  <si>
+    <t>IK-8003 U01</t>
+  </si>
+  <si>
+    <t>50119697</t>
+  </si>
+  <si>
+    <t>P00A0802200</t>
+  </si>
+  <si>
+    <t>IK-8022 3PH GATE MOTHER</t>
+  </si>
+  <si>
+    <t>50120167</t>
+  </si>
+  <si>
+    <t>P0A506301</t>
+  </si>
+  <si>
+    <t>IK-5063S01 IGBT GATE(6ｿｼ)</t>
+  </si>
+  <si>
+    <t>50119981</t>
+  </si>
+  <si>
+    <t>PZZA0177803</t>
+  </si>
+  <si>
+    <t>IK-1778A S03</t>
+  </si>
+  <si>
+    <t>50119432</t>
+  </si>
+  <si>
+    <t>P0A552729</t>
+  </si>
+  <si>
+    <t>WK-5527  U29 SR350 PANEL</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>50119932</t>
+  </si>
+  <si>
+    <t>P00A0703004</t>
+  </si>
+  <si>
+    <t>IK-7030B S04</t>
+  </si>
+  <si>
+    <t>50119788</t>
+  </si>
+  <si>
+    <t>PZZA0547911</t>
+  </si>
+  <si>
+    <t>WK-5479D U11 GATE PCB</t>
+  </si>
+  <si>
+    <t>50119859</t>
+  </si>
+  <si>
+    <t>PZZA0344829</t>
+  </si>
+  <si>
+    <t>WK-3448 U29 REACH</t>
+  </si>
+  <si>
+    <t>50119880</t>
+  </si>
+  <si>
+    <t>P0A344825</t>
+  </si>
+  <si>
+    <t>WK-3448 S25   MAIN PCB</t>
+  </si>
+  <si>
+    <t>50116302</t>
+  </si>
+  <si>
+    <t>P00A0732106</t>
+  </si>
+  <si>
+    <t>PK-7321A U06(05)62368 CPU</t>
+  </si>
+  <si>
+    <t>50119947</t>
+  </si>
+  <si>
+    <t>P00A0761603</t>
+  </si>
+  <si>
+    <t>IK-7616U03(IK-1749U32+VR)</t>
+  </si>
+  <si>
+    <t>50116764</t>
+  </si>
+  <si>
+    <t>50119757</t>
+  </si>
+  <si>
+    <t>P0A551200</t>
+  </si>
+  <si>
+    <t>CK-5512    E-CAP  PCB</t>
+  </si>
+  <si>
+    <t>50119955</t>
+  </si>
+  <si>
+    <t>PZZA0474107</t>
+  </si>
+  <si>
+    <t>IK-4741 U07 DIODE</t>
+  </si>
+  <si>
+    <t>50119804</t>
+  </si>
+  <si>
+    <t>PZZA0611502</t>
+  </si>
+  <si>
+    <t>IK-6115 U02</t>
+  </si>
+  <si>
+    <t>50119766</t>
+  </si>
+  <si>
+    <t>PZZA0530204</t>
+  </si>
+  <si>
+    <t>IK-5302D S04</t>
+  </si>
+  <si>
+    <t>50119867</t>
+  </si>
+  <si>
+    <t>P0A602300</t>
+  </si>
+  <si>
+    <t>MK-6023C     FAN SOURCE</t>
+  </si>
+  <si>
+    <t>50119972</t>
+  </si>
+  <si>
+    <t>P00A0797402</t>
+  </si>
+  <si>
+    <t>IK-7974A U02</t>
+  </si>
+  <si>
+    <t>50119971</t>
+  </si>
+  <si>
+    <t>P00A0797401</t>
+  </si>
+  <si>
+    <t>IK-7974A S01</t>
+  </si>
+  <si>
+    <t>50119332</t>
+  </si>
+  <si>
+    <t>P0A552800</t>
+  </si>
+  <si>
+    <t>WK-5528    ENC0DER ROHS</t>
+  </si>
+  <si>
+    <t>50119866</t>
+  </si>
+  <si>
+    <t>P00A0717122</t>
+  </si>
+  <si>
+    <t>MK-7171D U22 (MK691 SD9)</t>
+  </si>
+  <si>
+    <t>50119802</t>
+  </si>
+  <si>
+    <t>P0A360010</t>
+  </si>
+  <si>
+    <t>IK-3600 U10 21EX_DRIVER</t>
+  </si>
+  <si>
+    <t>50119896</t>
+  </si>
+  <si>
+    <t>P00A0717110</t>
+  </si>
+  <si>
+    <t>MK-7171D U10 (MK691 T30)</t>
+  </si>
+  <si>
+    <t>50119936</t>
+  </si>
+  <si>
+    <t>PZZA0557310</t>
+  </si>
+  <si>
+    <t>MK-5573B S10 HKD-F CPU</t>
+  </si>
+  <si>
+    <t>50120017</t>
+  </si>
+  <si>
+    <t>P00A0728900</t>
+  </si>
+  <si>
+    <t>WK-7289A ENCODER RoHS</t>
+  </si>
+  <si>
+    <t>50119852</t>
+  </si>
+  <si>
+    <t>97K150704</t>
+  </si>
+  <si>
+    <t>UK-1507B S04</t>
+  </si>
+  <si>
+    <t>50119954</t>
+  </si>
+  <si>
+    <t>PZZA0230805</t>
+  </si>
+  <si>
+    <t>IK-2308A U05 LED DISPLAY</t>
+  </si>
+  <si>
+    <t>50119915</t>
+  </si>
+  <si>
+    <t>P0A365901</t>
+  </si>
+  <si>
+    <t>LK-3659  S01 3ｿ3WACV2 ZNR</t>
+  </si>
+  <si>
+    <t>50119666</t>
+  </si>
+  <si>
+    <t>P00A0748800</t>
+  </si>
+  <si>
+    <t>MK-7488,89 RC PAIR(RoHS)</t>
+  </si>
+  <si>
+    <t>50119863</t>
+  </si>
+  <si>
+    <t>PZZA0604906</t>
+  </si>
+  <si>
+    <t>MK-6049  U06 IGBT GATE</t>
+  </si>
+  <si>
+    <t>50120018</t>
+  </si>
+  <si>
+    <t>P0A555100</t>
+  </si>
+  <si>
+    <t>WK-5551A     CONNECTER</t>
+  </si>
+  <si>
+    <t>50120050</t>
+  </si>
+  <si>
+    <t>P0A279007</t>
+  </si>
+  <si>
+    <t>EK-2790  S07 SNUB</t>
+  </si>
+  <si>
+    <t>50119876</t>
+  </si>
+  <si>
+    <t>P00A0743600</t>
+  </si>
+  <si>
+    <t>IK-7436B 制御電源基板</t>
+  </si>
+  <si>
+    <t>50119908</t>
+  </si>
+  <si>
+    <t>50119945</t>
+  </si>
+  <si>
+    <t>P00A0734700</t>
+  </si>
+  <si>
+    <t>IK-7347 A  DCV,DCI検出PCB</t>
+  </si>
+  <si>
+    <t>50119864</t>
+  </si>
+  <si>
+    <t>P00A0775800</t>
+  </si>
+  <si>
+    <t>WK-7758 MRT MOTHER</t>
+  </si>
+  <si>
+    <t>50119916</t>
+  </si>
+  <si>
+    <t>P0A365900</t>
+  </si>
+  <si>
+    <t>LK-3659  3ｿ4W ACV2 ZNR</t>
+  </si>
+  <si>
+    <t>50119716</t>
+  </si>
+  <si>
+    <t>P0A461002</t>
+  </si>
+  <si>
+    <t>GK-4610S02 FWD SNUBBER</t>
+  </si>
+  <si>
+    <t>50119608</t>
+  </si>
+  <si>
+    <t>P0A466123</t>
+  </si>
+  <si>
+    <t>IK-4661B U23 RF 48V</t>
+  </si>
+  <si>
+    <t>50119949</t>
+  </si>
+  <si>
+    <t>P0A279008</t>
+  </si>
+  <si>
+    <t>EK-2790  S08 SNUB</t>
+  </si>
+  <si>
+    <t>50119953</t>
+  </si>
+  <si>
+    <t>PZZA01280F8</t>
+  </si>
+  <si>
+    <t>GK-1280B UF8</t>
+  </si>
+  <si>
+    <t>50119893</t>
+  </si>
+  <si>
+    <t>PZZA0440926</t>
+  </si>
+  <si>
+    <t>IK-4409C U26 INV/CONT</t>
+  </si>
+  <si>
+    <t>50119671</t>
+  </si>
+  <si>
+    <t>P00A0720200</t>
+  </si>
+  <si>
+    <t>WK-7202  RELAY I/F1</t>
+  </si>
+  <si>
+    <t>50119917</t>
+  </si>
+  <si>
+    <t>P0A435600</t>
+  </si>
+  <si>
+    <t>CK-4356      ﾋｮｳｼﾞｭﾝ</t>
+  </si>
+  <si>
+    <t>50119349</t>
+  </si>
+  <si>
+    <t>P0A549300</t>
+  </si>
+  <si>
+    <t>WK-5493E     MAIN PCB C</t>
+  </si>
+  <si>
+    <t>50120019</t>
+  </si>
+  <si>
+    <t>50119421</t>
+  </si>
+  <si>
+    <t>P0A554808</t>
+  </si>
+  <si>
+    <t>WK-5548D U08 SR350DDCROHS</t>
+  </si>
+  <si>
+    <t>50118995</t>
+  </si>
+  <si>
+    <t>P00A0749800</t>
+  </si>
+  <si>
+    <t>MK-7498A DC CUP(RoHS)</t>
+  </si>
+  <si>
+    <t>50119857</t>
+  </si>
+  <si>
+    <t>P00A0745200</t>
+  </si>
+  <si>
+    <t>WK-7452  PANEL REACH</t>
+  </si>
+  <si>
+    <t>50120141</t>
+  </si>
+  <si>
+    <t>P00A0727002</t>
+  </si>
+  <si>
+    <t>MK-7270C U02 ﾙｯｸｽ(00) Ro</t>
+  </si>
+  <si>
+    <t>50119951</t>
+  </si>
+  <si>
+    <t>P0A474101</t>
+  </si>
+  <si>
+    <t>IK-4741 S01 DIODE</t>
+  </si>
+  <si>
+    <t>50119851</t>
+  </si>
+  <si>
+    <t>P0A381301</t>
+  </si>
+  <si>
+    <t>GK-3813A S01 ISOAMP RFDDC</t>
+  </si>
+  <si>
+    <t>50119911</t>
+  </si>
+  <si>
+    <t>PZYA1655100</t>
+  </si>
+  <si>
+    <t>DIMCOM 16551      RoHS</t>
+  </si>
+  <si>
+    <t>50119927</t>
+  </si>
+  <si>
+    <t>P0A537200</t>
+  </si>
+  <si>
+    <t>IK-5372  RS485 DRIVE PCB</t>
+  </si>
+  <si>
+    <t>50120073</t>
+  </si>
+  <si>
+    <t>PZZA0602702</t>
+  </si>
+  <si>
+    <t>FK-6027 S02 uPC812C SOP</t>
+  </si>
+  <si>
+    <t>50119858</t>
+  </si>
+  <si>
+    <t>PZZA0259604</t>
+  </si>
+  <si>
+    <t>WK-2596A U04  REACH</t>
+  </si>
+  <si>
+    <t>50119827</t>
+  </si>
+  <si>
+    <t>P0A551201</t>
+  </si>
+  <si>
+    <t>CK-5512U01 E-CAP(06.2 JH)</t>
+  </si>
+  <si>
+    <t>50120101</t>
+  </si>
+  <si>
+    <t>50118360</t>
+  </si>
+  <si>
+    <t>PZYA1650100</t>
+  </si>
+  <si>
+    <t>DIMCOM 16501C     RoHS</t>
+  </si>
+  <si>
+    <t>50119860</t>
+  </si>
+  <si>
+    <t>PZZA0550202</t>
+  </si>
+  <si>
+    <t>WK-5502A U02  REACH</t>
+  </si>
+  <si>
+    <t>50119879</t>
+  </si>
+  <si>
+    <t>P00A0782300</t>
+  </si>
+  <si>
+    <t>GK-7823A</t>
+  </si>
+  <si>
+    <t>50119728</t>
+  </si>
+  <si>
+    <t>P00A0736908</t>
+  </si>
+  <si>
+    <t>IK-7369 U08 GATE PCB</t>
+  </si>
+  <si>
+    <t>50119727</t>
+  </si>
+  <si>
+    <t>P00A0736907</t>
+  </si>
+  <si>
+    <t>IK-7369 U07 GATE PCB</t>
+  </si>
+  <si>
+    <t>50119729</t>
+  </si>
+  <si>
+    <t>P00A0736909</t>
+  </si>
+  <si>
+    <t>IK-7369 U09 GATE PCB</t>
+  </si>
+  <si>
+    <t>50119874</t>
+  </si>
+  <si>
+    <t>P00A0734410</t>
+  </si>
+  <si>
+    <t>IK-7344B U10</t>
+  </si>
+  <si>
+    <t>50119946</t>
+  </si>
+  <si>
+    <t>P00A0737201</t>
+  </si>
+  <si>
+    <t>IK-7372 S01</t>
+  </si>
+  <si>
+    <t>50119554</t>
+  </si>
+  <si>
+    <t>971030127</t>
+  </si>
+  <si>
+    <t>GK-956C    ｹ-ｽｲﾘ(F)</t>
+  </si>
+  <si>
+    <t>50119862</t>
+  </si>
+  <si>
+    <t>970112530</t>
+  </si>
+  <si>
+    <t>MK-1253A</t>
+  </si>
+  <si>
+    <t>50119767</t>
+  </si>
+  <si>
+    <t>PZZA0532025</t>
+  </si>
+  <si>
+    <t>IK-5320 U25 SENSOR.PCB</t>
+  </si>
+  <si>
+    <t>50119760</t>
+  </si>
+  <si>
+    <t>971030135</t>
+  </si>
+  <si>
+    <t>GK-1093B  ｹ-ｽｲﾘ</t>
+  </si>
+  <si>
+    <t>50119914</t>
+  </si>
+  <si>
+    <t>50119903</t>
+  </si>
+  <si>
+    <t>97K109320</t>
+  </si>
+  <si>
+    <t>GK-1093BS20  OCR RA1A9211</t>
+  </si>
+  <si>
+    <t>50119768</t>
+  </si>
+  <si>
+    <t>PZZA05320G6</t>
+  </si>
+  <si>
+    <t>IK-5320A UG6 SENSOR.PCB</t>
+  </si>
+  <si>
+    <t>50119155</t>
+  </si>
+  <si>
+    <t>P00A0736300</t>
+  </si>
+  <si>
+    <t>GK-7363  PCB</t>
+  </si>
+  <si>
+    <t>50119733</t>
+  </si>
+  <si>
+    <t>PZZA05320C4</t>
+  </si>
+  <si>
+    <t>IK-5320A UC4 SENSOR.PCB</t>
+  </si>
+  <si>
+    <t>50119929</t>
+  </si>
+  <si>
+    <t>50119336</t>
+  </si>
+  <si>
+    <t>P0A585802</t>
+  </si>
+  <si>
+    <t>WK-5858A U02  GATE SR350</t>
+  </si>
+  <si>
+    <t>50119723</t>
+  </si>
+  <si>
+    <t>P0A544822</t>
+  </si>
+  <si>
+    <t>WK-5448B U22 TH PANEL (J)</t>
+  </si>
+  <si>
+    <t>50119741</t>
+  </si>
+  <si>
+    <t>P0A238200</t>
+  </si>
+  <si>
+    <t>WK-2382   WK-2381B    SUB</t>
+  </si>
+  <si>
+    <t>50120153</t>
+  </si>
+  <si>
+    <t>P0A546000</t>
+  </si>
+  <si>
+    <t>WK-5460    GATE PCB</t>
+  </si>
+  <si>
+    <t>50119734</t>
+  </si>
+  <si>
+    <t>PZZA05320C5</t>
+  </si>
+  <si>
+    <t>IK-5320A UC5 SENSOR.PCB</t>
+  </si>
+  <si>
+    <t>50118458</t>
+  </si>
+  <si>
+    <t>P0A309706</t>
+  </si>
+  <si>
+    <t>WK-3097 U06  KP WARNING</t>
+  </si>
+  <si>
+    <t>50119672</t>
+  </si>
+  <si>
+    <t>50119948</t>
+  </si>
+  <si>
+    <t>P00A0796501</t>
+  </si>
+  <si>
+    <t>IK-7965 S01 CN 16-16-16</t>
+  </si>
+  <si>
+    <t>50119871</t>
+  </si>
+  <si>
+    <t>PZZA0595202</t>
+  </si>
+  <si>
+    <t>WK-5952B U02 TSI CTL</t>
+  </si>
+  <si>
+    <t>50119709</t>
+  </si>
+  <si>
+    <t>PZZA0394101</t>
+  </si>
+  <si>
+    <t>WK-3941  U01 POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>50119856</t>
+  </si>
+  <si>
+    <t>P0A560100</t>
+  </si>
+  <si>
+    <t>WK-5601B     CONTROL</t>
+  </si>
+  <si>
+    <t>50119950</t>
+  </si>
+  <si>
+    <t>P0A471402</t>
+  </si>
+  <si>
+    <t>IK-4714S02  DC200V,300V</t>
+  </si>
+  <si>
+    <t>50120002</t>
+  </si>
+  <si>
+    <t>P00A0795101</t>
+  </si>
+  <si>
+    <t>IK-7951 U01 制御PCB</t>
+  </si>
+  <si>
+    <t>50119875</t>
+  </si>
+  <si>
+    <t>P00A0734701</t>
+  </si>
+  <si>
+    <t>IK-7347 A S01 DCV,DCI検出</t>
+  </si>
+  <si>
+    <t>50119910</t>
+  </si>
+  <si>
+    <t>970407070</t>
+  </si>
+  <si>
+    <t>DIMCOM No.16570     RoHS</t>
+  </si>
+  <si>
+    <t>50119431</t>
+  </si>
+  <si>
+    <t>50118075</t>
+  </si>
+  <si>
+    <t>P0A544900</t>
+  </si>
+  <si>
+    <t>WK-5449C    CONTROL PCB</t>
+  </si>
+  <si>
+    <t>50119928</t>
+  </si>
+  <si>
+    <t>50119822</t>
+  </si>
+  <si>
+    <t>P0A461100</t>
+  </si>
+  <si>
+    <t>GK-4611</t>
+  </si>
+  <si>
+    <t>50119705</t>
+  </si>
+  <si>
+    <t>P00A0720300</t>
+  </si>
+  <si>
+    <t>WK-7203  RELAY I/F2</t>
+  </si>
+  <si>
+    <t>50120074</t>
+  </si>
+  <si>
+    <t>PZZA0357142</t>
+  </si>
+  <si>
+    <t>GK-3571 S42 Q38=CUT</t>
+  </si>
+  <si>
+    <t>50119818</t>
+  </si>
+  <si>
+    <t>P0A612700</t>
+  </si>
+  <si>
+    <t>IK-6127A     ROHS GH-017</t>
+  </si>
+  <si>
+    <t>50119791</t>
+  </si>
+  <si>
+    <t>50119359</t>
+  </si>
+  <si>
+    <t>50119878</t>
+  </si>
+  <si>
+    <t>P0A280100</t>
+  </si>
+  <si>
+    <t>IK-2801  IGBTUPSCN BOARD</t>
+  </si>
+  <si>
+    <t>50119886</t>
+  </si>
+  <si>
+    <t>P00A0719317</t>
+  </si>
+  <si>
+    <t>IK-7193E S17 LCD制御PCB</t>
+  </si>
+  <si>
+    <t>50119934</t>
+  </si>
+  <si>
+    <t>P00A0636000</t>
+  </si>
+  <si>
+    <t>GK-6360A OPT GPG(RF DDC)</t>
+  </si>
+  <si>
+    <t>50119821</t>
+  </si>
+  <si>
+    <t>970112800</t>
+  </si>
+  <si>
+    <t>GK-1280 B</t>
+  </si>
+  <si>
+    <t>50119865</t>
+  </si>
+  <si>
+    <t>50119881</t>
+  </si>
+  <si>
+    <t>P0A604502</t>
+  </si>
+  <si>
+    <t>MK-6045  U02 SCR GATE</t>
+  </si>
+  <si>
+    <t>50119892</t>
+  </si>
+  <si>
+    <t>P0A367300</t>
+  </si>
+  <si>
+    <t>IK-3673    DCS PCB</t>
+  </si>
+  <si>
+    <t>50119890</t>
+  </si>
+  <si>
+    <t>P0A478001</t>
+  </si>
+  <si>
+    <t>CK4780S01 DC NOISE FILTER</t>
+  </si>
+  <si>
+    <t>50119795</t>
+  </si>
+  <si>
+    <t>P00A0794500</t>
+  </si>
+  <si>
+    <t>IK-7945 出力PCB</t>
+  </si>
+  <si>
+    <t>50119662</t>
+  </si>
+  <si>
+    <t>PZZA0560410</t>
+  </si>
+  <si>
+    <t>WK-5604A U10 DET 100K</t>
+  </si>
+  <si>
+    <t>50111042</t>
+  </si>
+  <si>
+    <t>50119731</t>
+  </si>
+  <si>
+    <t>PZZA0286425</t>
+  </si>
+  <si>
+    <t>IK-2864BU25 LCD CNTRL NEX</t>
+  </si>
+  <si>
+    <t>50119873</t>
+  </si>
+  <si>
+    <t>P0A569402</t>
+  </si>
+  <si>
+    <t>WK-5694A S02  DDC-M</t>
+  </si>
+  <si>
+    <t>50119773</t>
+  </si>
+  <si>
+    <t>P0A460600</t>
+  </si>
+  <si>
+    <t>GK-4606</t>
+  </si>
+  <si>
+    <t>50119841</t>
+  </si>
+  <si>
+    <t>P0A293102</t>
+  </si>
+  <si>
+    <t>MK-2931C S02  MRT CONTROL</t>
+  </si>
+  <si>
+    <t>50119895</t>
+  </si>
+  <si>
+    <t>P00A0735100</t>
+  </si>
+  <si>
+    <t>IK-7351 MC駆動,MCBｱﾝｻPCB</t>
+  </si>
+  <si>
+    <t>50119870</t>
+  </si>
+  <si>
+    <t>P00A0716600</t>
+  </si>
+  <si>
+    <t>WK-7166 ACV DET.</t>
+  </si>
+  <si>
+    <t>50119839</t>
+  </si>
+  <si>
+    <t>97K112325</t>
+  </si>
+  <si>
+    <t>GK-1123 U25 PZA042300 (F)</t>
+  </si>
+  <si>
+    <t>50119808</t>
+  </si>
+  <si>
+    <t>97K102708</t>
+  </si>
+  <si>
+    <t>YMK-1027S08</t>
+  </si>
+  <si>
+    <t>50119726</t>
+  </si>
+  <si>
+    <t>P00A0736906</t>
+  </si>
+  <si>
+    <t>IK-7369 U06 GATE PCB</t>
+  </si>
+  <si>
+    <t>50119894</t>
+  </si>
+  <si>
+    <t>P0A326000</t>
+  </si>
+  <si>
+    <t>PK-3260    KSM-575 ｼﾞﾚｲ</t>
+  </si>
+  <si>
+    <t>50119765</t>
+  </si>
+  <si>
+    <t>PZZA0474110</t>
+  </si>
+  <si>
+    <t>IK-4741 U10 DIODE</t>
+  </si>
+  <si>
+    <t>50119868</t>
+  </si>
+  <si>
+    <t>P0A309431</t>
+  </si>
+  <si>
+    <t>WK-3094 U31         RELAY</t>
+  </si>
+  <si>
+    <t>50119869</t>
+  </si>
+  <si>
+    <t>P0A309432</t>
+  </si>
+  <si>
+    <t>WK-3094 U32         RELAY</t>
+  </si>
+  <si>
+    <t>50119774</t>
+  </si>
+  <si>
+    <t>P0A515712</t>
+  </si>
+  <si>
+    <t>WK-5157B U12 (J) CONTROL</t>
+  </si>
+  <si>
+    <t>50119887</t>
+  </si>
+  <si>
+    <t>P0A518002</t>
+  </si>
+  <si>
+    <t>IK-5180  U02 POWER PCB</t>
+  </si>
+  <si>
+    <t>50119913</t>
+  </si>
+  <si>
+    <t>P00A0786000</t>
+  </si>
+  <si>
+    <t>MK-7860B MRT-PL CPU</t>
+  </si>
+  <si>
+    <t>50119924</t>
+  </si>
+  <si>
+    <t>50119568</t>
+  </si>
+  <si>
+    <t>P0A279804</t>
+  </si>
+  <si>
+    <t>IK-2798B S04  CM400DY-12H</t>
+  </si>
+  <si>
+    <t>50119824</t>
+  </si>
+  <si>
+    <t>PZZA0622802</t>
+  </si>
+  <si>
+    <t>EK-6228C S02</t>
+  </si>
+  <si>
+    <t>50118747</t>
+  </si>
+  <si>
+    <t>P0A222805</t>
+  </si>
+  <si>
+    <t>MK-2228E S05 PHASE CONTRL</t>
+  </si>
+  <si>
+    <t>50119872</t>
+  </si>
+  <si>
+    <t>P0A563001</t>
+  </si>
+  <si>
+    <t>WK-5630B U01 EAGLE FILTER</t>
+  </si>
+  <si>
+    <t>50119931</t>
+  </si>
+  <si>
+    <t>PZZA0474108</t>
+  </si>
+  <si>
+    <t>IK-4741 U08 DIODE</t>
+  </si>
+  <si>
+    <t>50119567</t>
+  </si>
+  <si>
+    <t>P0A227200</t>
+  </si>
+  <si>
+    <t>GK-2272A          ｹﾞｰﾄｶｲﾛ</t>
+  </si>
+  <si>
+    <t>50119385</t>
+  </si>
+  <si>
+    <t>50119792</t>
+  </si>
+  <si>
+    <t>P00A0794200</t>
+  </si>
+  <si>
+    <t>IK-7942 電解ｺﾝPCB</t>
+  </si>
+  <si>
+    <t>50119764</t>
+  </si>
+  <si>
+    <t>P0A336600</t>
+  </si>
+  <si>
+    <t>WK-3366      SNUBBER</t>
+  </si>
+  <si>
+    <t>50119855</t>
+  </si>
+  <si>
+    <t>P0A245502</t>
+  </si>
+  <si>
+    <t>MK-2455 S02  THY SNUB PCB</t>
+  </si>
+  <si>
+    <t>50119576</t>
+  </si>
+  <si>
+    <t>P00A0800900</t>
+  </si>
+  <si>
+    <t>IK-8009</t>
+  </si>
+  <si>
+    <t>50119888</t>
+  </si>
+  <si>
+    <t>P0A559706</t>
+  </si>
+  <si>
+    <t>WK-5597A U06 LINK J 02</t>
+  </si>
+  <si>
+    <t>50119686</t>
+  </si>
+  <si>
+    <t>P0A245501</t>
+  </si>
+  <si>
+    <t>MK-2455 S01  THY SNUB PCB</t>
+  </si>
+  <si>
+    <t>50119787</t>
+  </si>
+  <si>
+    <t>P00A0736900</t>
+  </si>
+  <si>
+    <t>IK-7369 GATE PCB</t>
+  </si>
+  <si>
+    <t>50119334</t>
+  </si>
+  <si>
+    <t>P0A597500</t>
+  </si>
+  <si>
+    <t>WK-5975C CO2/MAG I/F</t>
+  </si>
+  <si>
+    <t>50119657</t>
+  </si>
+  <si>
+    <t>50119790</t>
+  </si>
+  <si>
+    <t>PZZA0602708</t>
+  </si>
+  <si>
+    <t>FK-6027 S08 uPC271G2 SOP</t>
+  </si>
+  <si>
+    <t>50119970</t>
+  </si>
+  <si>
+    <t>50119933</t>
+  </si>
+  <si>
+    <t>50119889</t>
+  </si>
+  <si>
+    <t>P0A574600</t>
+  </si>
+  <si>
+    <t>MK-5746A     RC PANEL</t>
+  </si>
+  <si>
+    <t>50119775</t>
+  </si>
+  <si>
+    <t>P0A546604</t>
+  </si>
+  <si>
+    <t>WK-5466E U04(J)200A D/D</t>
+  </si>
+  <si>
+    <t>50119722</t>
+  </si>
+  <si>
+    <t>P00A0761500</t>
+  </si>
+  <si>
+    <t>WK-7615A     AC TIG CTRL</t>
+  </si>
+  <si>
+    <t>50119772</t>
+  </si>
+  <si>
+    <t>P0A460515</t>
+  </si>
+  <si>
+    <t>GK-4605 S15</t>
+  </si>
+  <si>
+    <t>50119620</t>
+  </si>
+  <si>
+    <t>P0A546606</t>
+  </si>
+  <si>
+    <t>WK-5466E U06(J)200A D/D</t>
+  </si>
+  <si>
+    <t>50119891</t>
+  </si>
+  <si>
+    <t>P0A459000</t>
+  </si>
+  <si>
+    <t>IK-4590    ﾘﾚｰPCB-CVCFﾖｳ</t>
+  </si>
+  <si>
+    <t>50119816</t>
+  </si>
+  <si>
+    <t>PZZA0496107</t>
+  </si>
+  <si>
+    <t>WK-4961B U07 ROHS(04)MAIN</t>
+  </si>
+  <si>
+    <t>50119369</t>
+  </si>
+  <si>
+    <t>P0A616100</t>
+  </si>
+  <si>
+    <t>WK-6161B     VOUT DET PCB</t>
+  </si>
+  <si>
+    <t>50119676</t>
+  </si>
+  <si>
+    <t>P0A549600</t>
+  </si>
+  <si>
+    <t>PK-5496   KSX PANEL</t>
+  </si>
+  <si>
+    <t>50119789</t>
+  </si>
+  <si>
+    <t>P00A0751440</t>
+  </si>
+  <si>
+    <t>IK-7514B U40 BPV500K</t>
+  </si>
+  <si>
+    <t>50119710</t>
+  </si>
+  <si>
+    <t>P00A0789006</t>
+  </si>
+  <si>
+    <t>MK-7890 S06 PR CPU Ro</t>
+  </si>
+  <si>
+    <t>50119761</t>
+  </si>
+  <si>
+    <t>971030136</t>
+  </si>
+  <si>
+    <t>GK-1093BT1  ｹ-ｽｲﾘ</t>
+  </si>
+  <si>
+    <t>50119615</t>
+  </si>
+  <si>
+    <t>P00A0727602</t>
+  </si>
+  <si>
+    <t>MK-7276B U02 ﾙｯｸｽ(00) Ro</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>50119376</t>
+  </si>
+  <si>
+    <t>P0A560600</t>
+  </si>
+  <si>
+    <t>WK-5606A     2ND_DIODE C3</t>
+  </si>
+  <si>
+    <t>50118825</t>
+  </si>
+  <si>
+    <t>P0A464800</t>
+  </si>
+  <si>
+    <t>GK-4648A ISOAMP 0-5V/0-5V</t>
+  </si>
+  <si>
+    <t>50119762</t>
+  </si>
+  <si>
+    <t>971030139</t>
+  </si>
+  <si>
+    <t>GK-1123T1  ｹ-ｽｲﾘ(F)</t>
+  </si>
+  <si>
+    <t>50119806</t>
+  </si>
+  <si>
+    <t>50119681</t>
+  </si>
+  <si>
+    <t>PZZA0525409</t>
+  </si>
+  <si>
+    <t>PK-5254B U09(07)_Ro_180</t>
+  </si>
+  <si>
+    <t>50119902</t>
+  </si>
+  <si>
+    <t>P0A328905</t>
+  </si>
+  <si>
+    <t>IK-3289A S05 DC300V</t>
+  </si>
+  <si>
+    <t>50119786</t>
+  </si>
+  <si>
+    <t>PZZA0618435</t>
+  </si>
+  <si>
+    <t>GK-6184 U35 ISENS</t>
+  </si>
+  <si>
+    <t>50119674</t>
+  </si>
+  <si>
+    <t>PZZA0336208</t>
+  </si>
+  <si>
+    <t>WK-3362B U08 REACH SUB</t>
+  </si>
+  <si>
+    <t>50119819</t>
+  </si>
+  <si>
+    <t>P0A501300</t>
+  </si>
+  <si>
+    <t>GK-5013 ﾊﾟﾙｽﾄﾗﾝｽ</t>
+  </si>
+  <si>
+    <t>50118824</t>
+  </si>
+  <si>
+    <t>P0A464806</t>
+  </si>
+  <si>
+    <t>GK-4648AS06 0-60MV/4-20MA</t>
+  </si>
+  <si>
+    <t>50119776</t>
+  </si>
+  <si>
+    <t>50119735</t>
+  </si>
+  <si>
+    <t>PZZA0626702</t>
+  </si>
+  <si>
+    <t>IK-6267 U02 CM100DUS-12F</t>
+  </si>
+  <si>
+    <t>50119379</t>
+  </si>
+  <si>
+    <t>50119794</t>
+  </si>
+  <si>
+    <t>P00A0794400</t>
+  </si>
+  <si>
+    <t>IK-7944 ﾌｨﾙﾀｺﾝPCB</t>
+  </si>
+  <si>
+    <t>50119749</t>
+  </si>
+  <si>
+    <t>P0A326100</t>
+  </si>
+  <si>
+    <t>PK-3261B  PK-3260 ﾎｶ  SUB</t>
+  </si>
+  <si>
+    <t>50119823</t>
+  </si>
+  <si>
+    <t>50119658</t>
+  </si>
+  <si>
+    <t>P00A0808900</t>
+  </si>
+  <si>
+    <t>GK-8089 PCB</t>
+  </si>
+  <si>
+    <t>50119811</t>
+  </si>
+  <si>
+    <t>P00A0808000</t>
+  </si>
+  <si>
+    <t>GK-8080 PCB</t>
+  </si>
+  <si>
+    <t>50119820</t>
+  </si>
+  <si>
+    <t>P0A460532</t>
+  </si>
+  <si>
+    <t>GK-4605 S32</t>
+  </si>
+  <si>
+    <t>50119691</t>
+  </si>
+  <si>
+    <t>50119793</t>
+  </si>
+  <si>
+    <t>P00A0794300</t>
+  </si>
+  <si>
+    <t>IK-7943 ｲﾝﾊﾞｰﾀPCB</t>
+  </si>
+  <si>
+    <t>50119769</t>
+  </si>
+  <si>
+    <t>50119796</t>
+  </si>
+  <si>
+    <t>P00A0794600</t>
+  </si>
+  <si>
+    <t>IK-7946 CHOPﾄﾞﾗｲﾌﾞPCB</t>
+  </si>
+  <si>
+    <t>50119797</t>
+  </si>
+  <si>
+    <t>P00A0794700</t>
+  </si>
+  <si>
+    <t>IK-7947 INVﾄﾞﾗｲﾌﾞPCB</t>
+  </si>
+  <si>
+    <t>50119533</t>
+  </si>
+  <si>
+    <t>P00A0795100</t>
+  </si>
+  <si>
+    <t>IK-7951 制御PCB</t>
+  </si>
+  <si>
+    <t>50119702</t>
+  </si>
+  <si>
+    <t>50119692</t>
+  </si>
+  <si>
+    <t>50119923</t>
+  </si>
+  <si>
+    <t>970106076</t>
+  </si>
+  <si>
+    <t>IK-607F S06(F) PZA009900</t>
+  </si>
+  <si>
+    <t>50119799</t>
+  </si>
+  <si>
+    <t>P00A0801000</t>
+  </si>
+  <si>
+    <t>IK-8010 ﾁｮｯﾊﾟPCB</t>
+  </si>
+  <si>
+    <t>50119800</t>
+  </si>
+  <si>
+    <t>P00A0801001</t>
+  </si>
+  <si>
+    <t>IK-8010 U01 ﾁｮｯﾊﾟPCB</t>
+  </si>
+  <si>
+    <t>50119798</t>
+  </si>
+  <si>
+    <t>50119187</t>
+  </si>
+  <si>
+    <t>P0A464803</t>
+  </si>
+  <si>
+    <t>GK-4648AS03   0-60MV/0-5V</t>
+  </si>
+  <si>
+    <t>50119826</t>
+  </si>
+  <si>
+    <t>P00A0779802</t>
+  </si>
+  <si>
+    <t>EK-7798C U02  UG1 TB1A</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>38688587</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -287,9 +2208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +2238,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,45 +2301,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="桁区切り" xfId="3" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_calendar" xfId="1" xr:uid="{58214169-C784-4D45-A90A-DF0B02718C19}"/>
     <cellStyle name="標準_calendar_1" xfId="2" xr:uid="{1E0C095A-8931-4CD2-A12E-38E805A8D296}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{E1145B2B-6053-4D39-A486-24C07DDF4340}"/>
+    <cellStyle name="標準_Sheet1_1" xfId="5" xr:uid="{10B73452-0D6D-41B3-9E04-1A4CD1104C54}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562FAA9F-0A71-47C0-9222-B4C00F44E2F3}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -880,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A95FB6D-79C5-4E93-888F-1C2804C4F5F8}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="H1:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6248,4 +8215,6876 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B9BEB-0721-430F-931B-025336487213}">
+  <dimension ref="A1:Q232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.58203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.08203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.58203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12">
+        <v>53628</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>40779</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="12">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100</v>
+      </c>
+      <c r="G4" s="12">
+        <v>238100</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>183452</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>69158</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>41244</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>41262</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="12">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12">
+        <v>52398</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="12">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12">
+        <v>553250</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12">
+        <v>58788</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <v>179320</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12">
+        <v>77560</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="12">
+        <v>4</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="12">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12">
+        <v>399400</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="12">
+        <v>4</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="20">
+        <v>7607857</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20">
+        <v>666502</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="20">
+        <v>551300</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>8825659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>45862</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="12">
+        <v>99</v>
+      </c>
+      <c r="F15" s="12">
+        <v>99</v>
+      </c>
+      <c r="G15" s="12">
+        <v>330957</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="L15" s="20">
+        <v>8423161</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20">
+        <v>372976</v>
+      </c>
+      <c r="O15" s="20">
+        <v>343931</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20">
+        <v>9140068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="12">
+        <v>84639</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="12">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="L16" s="20">
+        <v>12141207</v>
+      </c>
+      <c r="M16" s="20">
+        <v>393029</v>
+      </c>
+      <c r="N16" s="20">
+        <v>713190</v>
+      </c>
+      <c r="O16" s="20">
+        <v>1688654</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20">
+        <v>14936080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="12">
+        <v>24</v>
+      </c>
+      <c r="F17" s="12">
+        <v>24</v>
+      </c>
+      <c r="G17" s="12">
+        <v>94392</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="12">
+        <v>4</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="L17" s="20">
+        <v>5148565</v>
+      </c>
+      <c r="M17" s="20">
+        <v>69158</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20">
+        <v>569057</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20">
+        <v>5786780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>13864</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="12">
+        <v>4</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="L18" s="20">
+        <v>33320790</v>
+      </c>
+      <c r="M18" s="20">
+        <v>462187</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1752668</v>
+      </c>
+      <c r="O18" s="20">
+        <v>2601642</v>
+      </c>
+      <c r="P18" s="20">
+        <v>551300</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>38688587.000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>34306</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="12">
+        <v>20</v>
+      </c>
+      <c r="F20" s="12">
+        <v>20</v>
+      </c>
+      <c r="G20" s="12">
+        <v>213120</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="12">
+        <v>6</v>
+      </c>
+      <c r="F21" s="12">
+        <v>6</v>
+      </c>
+      <c r="G21" s="12">
+        <v>114816</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="12">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12">
+        <v>10</v>
+      </c>
+      <c r="G22" s="12">
+        <v>146230</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="12">
+        <v>10</v>
+      </c>
+      <c r="F23" s="12">
+        <v>10</v>
+      </c>
+      <c r="G23" s="12">
+        <v>170530</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="12">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8</v>
+      </c>
+      <c r="G24" s="12">
+        <v>25848</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6</v>
+      </c>
+      <c r="F25" s="12">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12">
+        <v>41604</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="12">
+        <v>7</v>
+      </c>
+      <c r="F26" s="12">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12">
+        <v>26390</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <v>13871</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="12">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12">
+        <v>12</v>
+      </c>
+      <c r="G28" s="12">
+        <v>36360</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>45861</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="12">
+        <v>10</v>
+      </c>
+      <c r="F29" s="12">
+        <v>10</v>
+      </c>
+      <c r="G29" s="12">
+        <v>70890</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>45860</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="12">
+        <v>15</v>
+      </c>
+      <c r="F30" s="12">
+        <v>14</v>
+      </c>
+      <c r="G30" s="12">
+        <v>198380</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>45860</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="12">
+        <v>40</v>
+      </c>
+      <c r="F31" s="12">
+        <v>40</v>
+      </c>
+      <c r="G31" s="12">
+        <v>425400</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>45860</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>32490</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>45860</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="12">
+        <v>30</v>
+      </c>
+      <c r="F33" s="12">
+        <v>30</v>
+      </c>
+      <c r="G33" s="12">
+        <v>504510</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>45860</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="12">
+        <v>8</v>
+      </c>
+      <c r="F34" s="12">
+        <v>8</v>
+      </c>
+      <c r="G34" s="12">
+        <v>488544</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>45860</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10</v>
+      </c>
+      <c r="F35" s="12">
+        <v>10</v>
+      </c>
+      <c r="G35" s="12">
+        <v>731300</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>45857</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="12">
+        <v>8</v>
+      </c>
+      <c r="F36" s="12">
+        <v>8</v>
+      </c>
+      <c r="G36" s="12">
+        <v>166400</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="12">
+        <v>8</v>
+      </c>
+      <c r="F37" s="12">
+        <v>8</v>
+      </c>
+      <c r="G37" s="12">
+        <v>145016</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="12">
+        <v>100</v>
+      </c>
+      <c r="F38" s="12">
+        <v>100</v>
+      </c>
+      <c r="G38" s="12">
+        <v>668100</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="12">
+        <v>8</v>
+      </c>
+      <c r="F39" s="12">
+        <v>8</v>
+      </c>
+      <c r="G39" s="12">
+        <v>335624</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="12">
+        <v>33</v>
+      </c>
+      <c r="F40" s="12">
+        <v>33</v>
+      </c>
+      <c r="G40" s="12">
+        <v>58278</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="12">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12">
+        <v>15</v>
+      </c>
+      <c r="G41" s="12">
+        <v>511230</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="12">
+        <v>25</v>
+      </c>
+      <c r="F42" s="12">
+        <v>24</v>
+      </c>
+      <c r="G42" s="12">
+        <v>835224</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="12">
+        <v>30</v>
+      </c>
+      <c r="F43" s="12">
+        <v>28</v>
+      </c>
+      <c r="G43" s="12">
+        <v>148988</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="12">
+        <v>10</v>
+      </c>
+      <c r="F44" s="12">
+        <v>7</v>
+      </c>
+      <c r="G44" s="12">
+        <v>300048</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="12">
+        <v>30</v>
+      </c>
+      <c r="F45" s="12">
+        <v>30</v>
+      </c>
+      <c r="G45" s="12">
+        <v>159630</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>45856</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="12">
+        <v>30</v>
+      </c>
+      <c r="F46" s="12">
+        <v>2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>10642</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12">
+        <v>2</v>
+      </c>
+      <c r="G47" s="12">
+        <v>6982</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="12">
+        <v>9</v>
+      </c>
+      <c r="F48" s="12">
+        <v>9</v>
+      </c>
+      <c r="G48" s="12">
+        <v>33741</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2</v>
+      </c>
+      <c r="F49" s="12">
+        <v>2</v>
+      </c>
+      <c r="G49" s="12">
+        <v>52502</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="12">
+        <v>2</v>
+      </c>
+      <c r="F50" s="12">
+        <v>2</v>
+      </c>
+      <c r="G50" s="12">
+        <v>87342</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="12">
+        <v>3</v>
+      </c>
+      <c r="F51" s="12">
+        <v>3</v>
+      </c>
+      <c r="G51" s="12">
+        <v>43326</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="12">
+        <v>16</v>
+      </c>
+      <c r="F52" s="12">
+        <v>16</v>
+      </c>
+      <c r="G52" s="12">
+        <v>108800</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="12">
+        <v>8</v>
+      </c>
+      <c r="F53" s="12">
+        <v>8</v>
+      </c>
+      <c r="G53" s="12">
+        <v>79720</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="12">
+        <v>126</v>
+      </c>
+      <c r="F54" s="12">
+        <v>126</v>
+      </c>
+      <c r="G54" s="12">
+        <v>155106</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="12">
+        <v>4</v>
+      </c>
+      <c r="F55" s="12">
+        <v>4</v>
+      </c>
+      <c r="G55" s="12">
+        <v>94572</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="12">
+        <v>17</v>
+      </c>
+      <c r="F56" s="12">
+        <v>17</v>
+      </c>
+      <c r="G56" s="12">
+        <v>192015</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
+        <v>30245</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>45855</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2</v>
+      </c>
+      <c r="F58" s="12">
+        <v>2</v>
+      </c>
+      <c r="G58" s="12">
+        <v>39500</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="12">
+        <v>27</v>
+      </c>
+      <c r="F59" s="12">
+        <v>27</v>
+      </c>
+      <c r="G59" s="12">
+        <v>27216</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="12">
+        <v>4</v>
+      </c>
+      <c r="F60" s="12">
+        <v>4</v>
+      </c>
+      <c r="G60" s="12">
+        <v>23796</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E61" s="12">
+        <v>2</v>
+      </c>
+      <c r="F61" s="12">
+        <v>2</v>
+      </c>
+      <c r="G61" s="12">
+        <v>14164</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="12">
+        <v>18</v>
+      </c>
+      <c r="F62" s="12">
+        <v>18</v>
+      </c>
+      <c r="G62" s="12">
+        <v>45090</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="12">
+        <v>12</v>
+      </c>
+      <c r="F63" s="12">
+        <v>12</v>
+      </c>
+      <c r="G63" s="12">
+        <v>185640</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" s="12">
+        <v>12</v>
+      </c>
+      <c r="F64" s="12">
+        <v>12</v>
+      </c>
+      <c r="G64" s="12">
+        <v>18228</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="12">
+        <v>12</v>
+      </c>
+      <c r="F65" s="12">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12">
+        <v>17208</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" s="12">
+        <v>18</v>
+      </c>
+      <c r="F66" s="12">
+        <v>18</v>
+      </c>
+      <c r="G66" s="12">
+        <v>43020</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" s="12">
+        <v>30</v>
+      </c>
+      <c r="F67" s="12">
+        <v>30</v>
+      </c>
+      <c r="G67" s="12">
+        <v>424980</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" s="12">
+        <v>6</v>
+      </c>
+      <c r="F68" s="12">
+        <v>6</v>
+      </c>
+      <c r="G68" s="12">
+        <v>8604</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E69" s="12">
+        <v>10</v>
+      </c>
+      <c r="F69" s="12">
+        <v>10</v>
+      </c>
+      <c r="G69" s="12">
+        <v>135090</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" s="12">
+        <v>2</v>
+      </c>
+      <c r="F70" s="12">
+        <v>2</v>
+      </c>
+      <c r="G70" s="12">
+        <v>66302</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" s="12">
+        <v>6</v>
+      </c>
+      <c r="F71" s="12">
+        <v>6</v>
+      </c>
+      <c r="G71" s="12">
+        <v>16836</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" s="12">
+        <v>6</v>
+      </c>
+      <c r="F72" s="12">
+        <v>6</v>
+      </c>
+      <c r="G72" s="12">
+        <v>13926</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="12">
+        <v>8</v>
+      </c>
+      <c r="F73" s="12">
+        <v>8</v>
+      </c>
+      <c r="G73" s="12">
+        <v>150736</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="12">
+        <v>6</v>
+      </c>
+      <c r="F74" s="12">
+        <v>6</v>
+      </c>
+      <c r="G74" s="12">
+        <v>14118</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1</v>
+      </c>
+      <c r="G75" s="12">
+        <v>43771</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1</v>
+      </c>
+      <c r="G76" s="12">
+        <v>52570</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>45854</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E77" s="12">
+        <v>13</v>
+      </c>
+      <c r="F77" s="12">
+        <v>13</v>
+      </c>
+      <c r="G77" s="12">
+        <v>154232</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I77" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E78" s="12">
+        <v>2</v>
+      </c>
+      <c r="F78" s="12">
+        <v>2</v>
+      </c>
+      <c r="G78" s="12">
+        <v>24012</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E79" s="12">
+        <v>110</v>
+      </c>
+      <c r="F79" s="12">
+        <v>54</v>
+      </c>
+      <c r="G79" s="12">
+        <v>675000</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I79" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" s="12">
+        <v>5</v>
+      </c>
+      <c r="F80" s="12">
+        <v>5</v>
+      </c>
+      <c r="G80" s="12">
+        <v>62500</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" s="12">
+        <v>110</v>
+      </c>
+      <c r="F81" s="12">
+        <v>110</v>
+      </c>
+      <c r="G81" s="12">
+        <v>5730560</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I81" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="12">
+        <v>24</v>
+      </c>
+      <c r="F82" s="12">
+        <v>24</v>
+      </c>
+      <c r="G82" s="12">
+        <v>77592</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E83" s="12">
+        <v>15</v>
+      </c>
+      <c r="F83" s="12">
+        <v>15</v>
+      </c>
+      <c r="G83" s="12">
+        <v>154275</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E84" s="12">
+        <v>49</v>
+      </c>
+      <c r="F84" s="12">
+        <v>39</v>
+      </c>
+      <c r="G84" s="12">
+        <v>312819</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>45853</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85" s="12">
+        <v>24</v>
+      </c>
+      <c r="F85" s="12">
+        <v>24</v>
+      </c>
+      <c r="G85" s="12">
+        <v>46152</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="12">
+        <v>30</v>
+      </c>
+      <c r="F86" s="12">
+        <v>30</v>
+      </c>
+      <c r="G86" s="12">
+        <v>212370</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" s="12">
+        <v>1</v>
+      </c>
+      <c r="F87" s="12">
+        <v>1</v>
+      </c>
+      <c r="G87" s="12">
+        <v>11371</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I87" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E88" s="12">
+        <v>20</v>
+      </c>
+      <c r="F88" s="12">
+        <v>20</v>
+      </c>
+      <c r="G88" s="12">
+        <v>371880</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" s="12">
+        <v>49</v>
+      </c>
+      <c r="F89" s="12">
+        <v>10</v>
+      </c>
+      <c r="G89" s="12">
+        <v>80210</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I89" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="12">
+        <v>110</v>
+      </c>
+      <c r="F90" s="12">
+        <v>56</v>
+      </c>
+      <c r="G90" s="12">
+        <v>700000</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I90" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E91" s="12">
+        <v>50</v>
+      </c>
+      <c r="F91" s="12">
+        <v>50</v>
+      </c>
+      <c r="G91" s="12">
+        <v>54400</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E92" s="12">
+        <v>16</v>
+      </c>
+      <c r="F92" s="12">
+        <v>16</v>
+      </c>
+      <c r="G92" s="12">
+        <v>29552</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I92" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E93" s="12">
+        <v>2</v>
+      </c>
+      <c r="F93" s="12">
+        <v>2</v>
+      </c>
+      <c r="G93" s="12">
+        <v>7070</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12">
+        <v>1</v>
+      </c>
+      <c r="G94" s="12">
+        <v>20800</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I94" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E95" s="12">
+        <v>3</v>
+      </c>
+      <c r="F95" s="12">
+        <v>3</v>
+      </c>
+      <c r="G95" s="12">
+        <v>81075</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I95" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" s="12">
+        <v>18</v>
+      </c>
+      <c r="F96" s="12">
+        <v>18</v>
+      </c>
+      <c r="G96" s="12">
+        <v>25020</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1</v>
+      </c>
+      <c r="F97" s="12">
+        <v>1</v>
+      </c>
+      <c r="G97" s="12">
+        <v>41081</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I97" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E98" s="12">
+        <v>3</v>
+      </c>
+      <c r="F98" s="12">
+        <v>3</v>
+      </c>
+      <c r="G98" s="12">
+        <v>84123</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I98" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E99" s="12">
+        <v>3</v>
+      </c>
+      <c r="F99" s="12">
+        <v>3</v>
+      </c>
+      <c r="G99" s="12">
+        <v>84555</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I99" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E100" s="12">
+        <v>4</v>
+      </c>
+      <c r="F100" s="12">
+        <v>4</v>
+      </c>
+      <c r="G100" s="12">
+        <v>112760</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I100" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1</v>
+      </c>
+      <c r="F101" s="12">
+        <v>1</v>
+      </c>
+      <c r="G101" s="12">
+        <v>20445</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I101" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" s="12">
+        <v>24</v>
+      </c>
+      <c r="F102" s="12">
+        <v>24</v>
+      </c>
+      <c r="G102" s="12">
+        <v>38040</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I102" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
+        <v>45852</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E103" s="12">
+        <v>10</v>
+      </c>
+      <c r="F103" s="12">
+        <v>10</v>
+      </c>
+      <c r="G103" s="12">
+        <v>159860</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I103" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E104" s="12">
+        <v>1</v>
+      </c>
+      <c r="F104" s="12">
+        <v>1</v>
+      </c>
+      <c r="G104" s="12">
+        <v>8329</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I104" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" s="12">
+        <v>2</v>
+      </c>
+      <c r="F105" s="12">
+        <v>2</v>
+      </c>
+      <c r="G105" s="12">
+        <v>50554</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" s="12">
+        <v>8</v>
+      </c>
+      <c r="F106" s="12">
+        <v>8</v>
+      </c>
+      <c r="G106" s="12">
+        <v>134464</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I106" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E107" s="12">
+        <v>13</v>
+      </c>
+      <c r="F107" s="12">
+        <v>13</v>
+      </c>
+      <c r="G107" s="12">
+        <v>154232</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I107" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E108" s="12">
+        <v>1</v>
+      </c>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12">
+        <v>21952</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I108" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E109" s="12">
+        <v>2</v>
+      </c>
+      <c r="F109" s="12">
+        <v>2</v>
+      </c>
+      <c r="G109" s="12">
+        <v>47926</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I109" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E110" s="12">
+        <v>10</v>
+      </c>
+      <c r="F110" s="12">
+        <v>8</v>
+      </c>
+      <c r="G110" s="12">
+        <v>313040</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I110" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" s="12">
+        <v>3</v>
+      </c>
+      <c r="F111" s="12">
+        <v>3</v>
+      </c>
+      <c r="G111" s="12">
+        <v>90351</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I111" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E112" s="12">
+        <v>8</v>
+      </c>
+      <c r="F112" s="12">
+        <v>8</v>
+      </c>
+      <c r="G112" s="12">
+        <v>202216</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I112" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E113" s="12">
+        <v>201</v>
+      </c>
+      <c r="F113" s="12">
+        <v>201</v>
+      </c>
+      <c r="G113" s="12">
+        <v>340293</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I113" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E114" s="12">
+        <v>4</v>
+      </c>
+      <c r="F114" s="12">
+        <v>4</v>
+      </c>
+      <c r="G114" s="12">
+        <v>31420</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I114" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E115" s="12">
+        <v>6</v>
+      </c>
+      <c r="F115" s="12">
+        <v>6</v>
+      </c>
+      <c r="G115" s="12">
+        <v>28368</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I115" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E116" s="12">
+        <v>16</v>
+      </c>
+      <c r="F116" s="12">
+        <v>16</v>
+      </c>
+      <c r="G116" s="12">
+        <v>32160</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I116" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="14">
+        <v>45849</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" s="12">
+        <v>3</v>
+      </c>
+      <c r="F117" s="12">
+        <v>3</v>
+      </c>
+      <c r="G117" s="12">
+        <v>90384</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I117" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E118" s="12">
+        <v>10</v>
+      </c>
+      <c r="F118" s="12">
+        <v>10</v>
+      </c>
+      <c r="G118" s="12">
+        <v>37760</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I118" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E119" s="12">
+        <v>20</v>
+      </c>
+      <c r="F119" s="12">
+        <v>20</v>
+      </c>
+      <c r="G119" s="12">
+        <v>75520</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I119" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E120" s="12">
+        <v>12</v>
+      </c>
+      <c r="F120" s="12">
+        <v>12</v>
+      </c>
+      <c r="G120" s="12">
+        <v>16656</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I120" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E121" s="12">
+        <v>2</v>
+      </c>
+      <c r="F121" s="12">
+        <v>2</v>
+      </c>
+      <c r="G121" s="12">
+        <v>78216</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I121" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E122" s="12">
+        <v>8</v>
+      </c>
+      <c r="F122" s="12">
+        <v>8</v>
+      </c>
+      <c r="G122" s="12">
+        <v>32960</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I122" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E123" s="12">
+        <v>14</v>
+      </c>
+      <c r="F123" s="12">
+        <v>14</v>
+      </c>
+      <c r="G123" s="12">
+        <v>114212</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I123" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E124" s="12">
+        <v>5</v>
+      </c>
+      <c r="F124" s="12">
+        <v>5</v>
+      </c>
+      <c r="G124" s="12">
+        <v>67135</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I124" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1</v>
+      </c>
+      <c r="F125" s="12">
+        <v>1</v>
+      </c>
+      <c r="G125" s="12">
+        <v>15012</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I125" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E126" s="12">
+        <v>3</v>
+      </c>
+      <c r="F126" s="12">
+        <v>3</v>
+      </c>
+      <c r="G126" s="12">
+        <v>35823</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I126" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1</v>
+      </c>
+      <c r="F127" s="12">
+        <v>1</v>
+      </c>
+      <c r="G127" s="12">
+        <v>5796</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I127" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128" s="12">
+        <v>50</v>
+      </c>
+      <c r="F128" s="12">
+        <v>50</v>
+      </c>
+      <c r="G128" s="12">
+        <v>334050</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I128" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="14">
+        <v>45848</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E129" s="12">
+        <v>152</v>
+      </c>
+      <c r="F129" s="12">
+        <v>102</v>
+      </c>
+      <c r="G129" s="12">
+        <v>451962</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I129" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E130" s="12">
+        <v>8</v>
+      </c>
+      <c r="F130" s="12">
+        <v>8</v>
+      </c>
+      <c r="G130" s="12">
+        <v>349368</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I130" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E131" s="12">
+        <v>5</v>
+      </c>
+      <c r="F131" s="12">
+        <v>5</v>
+      </c>
+      <c r="G131" s="12">
+        <v>64310</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I131" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E132" s="12">
+        <v>16</v>
+      </c>
+      <c r="F132" s="12">
+        <v>16</v>
+      </c>
+      <c r="G132" s="12">
+        <v>153360</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I132" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E133" s="12">
+        <v>1</v>
+      </c>
+      <c r="F133" s="12">
+        <v>1</v>
+      </c>
+      <c r="G133" s="12">
+        <v>64036</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I133" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E134" s="12">
+        <v>12</v>
+      </c>
+      <c r="F134" s="12">
+        <v>12</v>
+      </c>
+      <c r="G134" s="12">
+        <v>23604</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I134" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E135" s="12">
+        <v>12</v>
+      </c>
+      <c r="F135" s="12">
+        <v>12</v>
+      </c>
+      <c r="G135" s="12">
+        <v>23604</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I135" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" s="12">
+        <v>50</v>
+      </c>
+      <c r="F136" s="12">
+        <v>50</v>
+      </c>
+      <c r="G136" s="12">
+        <v>553250</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I136" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E137" s="12">
+        <v>2</v>
+      </c>
+      <c r="F137" s="12">
+        <v>2</v>
+      </c>
+      <c r="G137" s="12">
+        <v>15186</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I137" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E138" s="12">
+        <v>10</v>
+      </c>
+      <c r="F138" s="12">
+        <v>10</v>
+      </c>
+      <c r="G138" s="12">
+        <v>320360</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I138" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E139" s="12">
+        <v>6</v>
+      </c>
+      <c r="F139" s="12">
+        <v>6</v>
+      </c>
+      <c r="G139" s="12">
+        <v>64146</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I139" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E140" s="12">
+        <v>3</v>
+      </c>
+      <c r="F140" s="12">
+        <v>3</v>
+      </c>
+      <c r="G140" s="12">
+        <v>132288</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I140" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12">
+        <v>1</v>
+      </c>
+      <c r="G141" s="12">
+        <v>44096</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I141" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E142" s="12">
+        <v>6</v>
+      </c>
+      <c r="F142" s="12">
+        <v>6</v>
+      </c>
+      <c r="G142" s="12">
+        <v>21756</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I142" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E143" s="12">
+        <v>30</v>
+      </c>
+      <c r="F143" s="12">
+        <v>30</v>
+      </c>
+      <c r="G143" s="12">
+        <v>147180</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I143" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E144" s="12">
+        <v>18</v>
+      </c>
+      <c r="F144" s="12">
+        <v>18</v>
+      </c>
+      <c r="G144" s="12">
+        <v>19854</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I144" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="14">
+        <v>45847</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E145" s="12">
+        <v>10</v>
+      </c>
+      <c r="F145" s="12">
+        <v>3</v>
+      </c>
+      <c r="G145" s="12">
+        <v>56883</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I145" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E146" s="12">
+        <v>6</v>
+      </c>
+      <c r="F146" s="12">
+        <v>6</v>
+      </c>
+      <c r="G146" s="12">
+        <v>56574</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I146" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E147" s="12">
+        <v>40</v>
+      </c>
+      <c r="F147" s="12">
+        <v>40</v>
+      </c>
+      <c r="G147" s="12">
+        <v>212840</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I147" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E148" s="12">
+        <v>12</v>
+      </c>
+      <c r="F148" s="12">
+        <v>12</v>
+      </c>
+      <c r="G148" s="12">
+        <v>361836</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I148" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E149" s="12">
+        <v>2</v>
+      </c>
+      <c r="F149" s="12">
+        <v>2</v>
+      </c>
+      <c r="G149" s="12">
+        <v>42852</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I149" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E150" s="12">
+        <v>20</v>
+      </c>
+      <c r="F150" s="12">
+        <v>20</v>
+      </c>
+      <c r="G150" s="12">
+        <v>209960</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I150" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E151" s="12">
+        <v>3</v>
+      </c>
+      <c r="F151" s="12">
+        <v>3</v>
+      </c>
+      <c r="G151" s="12">
+        <v>153129</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I151" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E152" s="12">
+        <v>10</v>
+      </c>
+      <c r="F152" s="12">
+        <v>10</v>
+      </c>
+      <c r="G152" s="12">
+        <v>37920</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I152" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153" s="12">
+        <v>4</v>
+      </c>
+      <c r="F153" s="12">
+        <v>4</v>
+      </c>
+      <c r="G153" s="12">
+        <v>11680</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I153" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1</v>
+      </c>
+      <c r="F154" s="12">
+        <v>1</v>
+      </c>
+      <c r="G154" s="12">
+        <v>20914</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I154" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12">
+        <v>1</v>
+      </c>
+      <c r="G155" s="12">
+        <v>19279</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I155" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E156" s="12">
+        <v>3</v>
+      </c>
+      <c r="F156" s="12">
+        <v>3</v>
+      </c>
+      <c r="G156" s="12">
+        <v>84123</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I156" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="14">
+        <v>45846</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E157" s="12">
+        <v>12</v>
+      </c>
+      <c r="F157" s="12">
+        <v>12</v>
+      </c>
+      <c r="G157" s="12">
+        <v>436704</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I157" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E158" s="12">
+        <v>3</v>
+      </c>
+      <c r="F158" s="12">
+        <v>3</v>
+      </c>
+      <c r="G158" s="12">
+        <v>8244</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I158" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E159" s="12">
+        <v>2</v>
+      </c>
+      <c r="F159" s="12">
+        <v>2</v>
+      </c>
+      <c r="G159" s="12">
+        <v>20622</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I159" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E160" s="12">
+        <v>2</v>
+      </c>
+      <c r="F160" s="12">
+        <v>2</v>
+      </c>
+      <c r="G160" s="12">
+        <v>20752</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I160" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E161" s="12">
+        <v>40</v>
+      </c>
+      <c r="F161" s="12">
+        <v>6</v>
+      </c>
+      <c r="G161" s="12">
+        <v>55902</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I161" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E162" s="12">
+        <v>10</v>
+      </c>
+      <c r="F162" s="12">
+        <v>10</v>
+      </c>
+      <c r="G162" s="12">
+        <v>210380</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I162" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E163" s="12">
+        <v>2</v>
+      </c>
+      <c r="F163" s="12">
+        <v>2</v>
+      </c>
+      <c r="G163" s="12">
+        <v>78660</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I163" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E164" s="12">
+        <v>3</v>
+      </c>
+      <c r="F164" s="12">
+        <v>3</v>
+      </c>
+      <c r="G164" s="12">
+        <v>8244</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I164" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E165" s="12">
+        <v>60</v>
+      </c>
+      <c r="F165" s="12">
+        <v>58</v>
+      </c>
+      <c r="G165" s="12">
+        <v>1286208</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I165" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E166" s="12">
+        <v>2</v>
+      </c>
+      <c r="F166" s="12">
+        <v>2</v>
+      </c>
+      <c r="G166" s="12">
+        <v>48896</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I166" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E167" s="12">
+        <v>1</v>
+      </c>
+      <c r="F167" s="12">
+        <v>1</v>
+      </c>
+      <c r="G167" s="12">
+        <v>31645</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I167" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E168" s="12">
+        <v>2</v>
+      </c>
+      <c r="F168" s="12">
+        <v>2</v>
+      </c>
+      <c r="G168" s="12">
+        <v>15994</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I168" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E169" s="12">
+        <v>9</v>
+      </c>
+      <c r="F169" s="12">
+        <v>9</v>
+      </c>
+      <c r="G169" s="12">
+        <v>27981</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I169" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E170" s="12">
+        <v>42</v>
+      </c>
+      <c r="F170" s="12">
+        <v>42</v>
+      </c>
+      <c r="G170" s="12">
+        <v>154518</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I170" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" s="12">
+        <v>100</v>
+      </c>
+      <c r="F171" s="12">
+        <v>100</v>
+      </c>
+      <c r="G171" s="12">
+        <v>238100</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I171" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E172" s="12">
+        <v>10</v>
+      </c>
+      <c r="F172" s="12">
+        <v>4</v>
+      </c>
+      <c r="G172" s="12">
+        <v>42804</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I172" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E173" s="12">
+        <v>99</v>
+      </c>
+      <c r="F173" s="12">
+        <v>99</v>
+      </c>
+      <c r="G173" s="12">
+        <v>105831</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I173" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="E174" s="12">
+        <v>6</v>
+      </c>
+      <c r="F174" s="12">
+        <v>6</v>
+      </c>
+      <c r="G174" s="12">
+        <v>28914</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I174" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E175" s="12">
+        <v>40</v>
+      </c>
+      <c r="F175" s="12">
+        <v>40</v>
+      </c>
+      <c r="G175" s="12">
+        <v>202720</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I175" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E176" s="12">
+        <v>5</v>
+      </c>
+      <c r="F176" s="12">
+        <v>5</v>
+      </c>
+      <c r="G176" s="12">
+        <v>17170</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I176" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>45845</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E177" s="12">
+        <v>6</v>
+      </c>
+      <c r="F177" s="12">
+        <v>6</v>
+      </c>
+      <c r="G177" s="12">
+        <v>24600</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I177" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E178" s="12">
+        <v>2</v>
+      </c>
+      <c r="F178" s="12">
+        <v>2</v>
+      </c>
+      <c r="G178" s="12">
+        <v>63458</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I178" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E179" s="12">
+        <v>55</v>
+      </c>
+      <c r="F179" s="12">
+        <v>2</v>
+      </c>
+      <c r="G179" s="12">
+        <v>26200</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I179" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E180" s="12">
+        <v>2</v>
+      </c>
+      <c r="F180" s="12">
+        <v>2</v>
+      </c>
+      <c r="G180" s="12">
+        <v>37684</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I180" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E181" s="12">
+        <v>100</v>
+      </c>
+      <c r="F181" s="12">
+        <v>100</v>
+      </c>
+      <c r="G181" s="12">
+        <v>35300</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I181" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E182" s="12">
+        <v>100</v>
+      </c>
+      <c r="F182" s="12">
+        <v>100</v>
+      </c>
+      <c r="G182" s="12">
+        <v>108800</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I182" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E183" s="12">
+        <v>50</v>
+      </c>
+      <c r="F183" s="12">
+        <v>50</v>
+      </c>
+      <c r="G183" s="12">
+        <v>54400</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I183" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E184" s="12">
+        <v>20</v>
+      </c>
+      <c r="F184" s="12">
+        <v>20</v>
+      </c>
+      <c r="G184" s="12">
+        <v>142420</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I184" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E185" s="12">
+        <v>60</v>
+      </c>
+      <c r="F185" s="12">
+        <v>60</v>
+      </c>
+      <c r="G185" s="12">
+        <v>922800</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I185" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E186" s="12">
+        <v>5</v>
+      </c>
+      <c r="F186" s="12">
+        <v>5</v>
+      </c>
+      <c r="G186" s="12">
+        <v>46470</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I186" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E187" s="12">
+        <v>10</v>
+      </c>
+      <c r="F187" s="12">
+        <v>3</v>
+      </c>
+      <c r="G187" s="12">
+        <v>45831</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I187" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E188" s="12">
+        <v>2</v>
+      </c>
+      <c r="F188" s="12">
+        <v>2</v>
+      </c>
+      <c r="G188" s="12">
+        <v>33058</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I188" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="14">
+        <v>45842</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E189" s="12">
+        <v>4</v>
+      </c>
+      <c r="F189" s="12">
+        <v>4</v>
+      </c>
+      <c r="G189" s="12">
+        <v>28156</v>
+      </c>
+      <c r="H189" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I189" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E190" s="12">
+        <v>14</v>
+      </c>
+      <c r="F190" s="12">
+        <v>14</v>
+      </c>
+      <c r="G190" s="12">
+        <v>204806</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I190" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E191" s="12">
+        <v>50</v>
+      </c>
+      <c r="F191" s="12">
+        <v>50</v>
+      </c>
+      <c r="G191" s="12">
+        <v>341450</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I191" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E192" s="12">
+        <v>30</v>
+      </c>
+      <c r="F192" s="12">
+        <v>30</v>
+      </c>
+      <c r="G192" s="12">
+        <v>119700</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I192" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E193" s="12">
+        <v>1</v>
+      </c>
+      <c r="F193" s="12">
+        <v>1</v>
+      </c>
+      <c r="G193" s="12">
+        <v>63498</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I193" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E194" s="12">
+        <v>4</v>
+      </c>
+      <c r="F194" s="12">
+        <v>4</v>
+      </c>
+      <c r="G194" s="12">
+        <v>95884</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I194" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E195" s="12">
+        <v>2</v>
+      </c>
+      <c r="F195" s="12">
+        <v>2</v>
+      </c>
+      <c r="G195" s="12">
+        <v>46800</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I195" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E196" s="12">
+        <v>100</v>
+      </c>
+      <c r="F196" s="12">
+        <v>100</v>
+      </c>
+      <c r="G196" s="12">
+        <v>551300</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="I196" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E197" s="12">
+        <v>102</v>
+      </c>
+      <c r="F197" s="12">
+        <v>102</v>
+      </c>
+      <c r="G197" s="12">
+        <v>288762</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I197" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="E198" s="12">
+        <v>3</v>
+      </c>
+      <c r="F198" s="12">
+        <v>3</v>
+      </c>
+      <c r="G198" s="12">
+        <v>22986</v>
+      </c>
+      <c r="H198" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I198" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E199" s="12">
+        <v>2</v>
+      </c>
+      <c r="F199" s="12">
+        <v>2</v>
+      </c>
+      <c r="G199" s="12">
+        <v>41272</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I199" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E200" s="12">
+        <v>1</v>
+      </c>
+      <c r="F200" s="12">
+        <v>1</v>
+      </c>
+      <c r="G200" s="12">
+        <v>20914</v>
+      </c>
+      <c r="H200" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I200" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="14">
+        <v>45841</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E201" s="12">
+        <v>18</v>
+      </c>
+      <c r="F201" s="12">
+        <v>18</v>
+      </c>
+      <c r="G201" s="12">
+        <v>40248</v>
+      </c>
+      <c r="H201" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I201" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E202" s="12">
+        <v>4</v>
+      </c>
+      <c r="F202" s="12">
+        <v>4</v>
+      </c>
+      <c r="G202" s="12">
+        <v>133972</v>
+      </c>
+      <c r="H202" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I202" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E203" s="12">
+        <v>2</v>
+      </c>
+      <c r="F203" s="12">
+        <v>2</v>
+      </c>
+      <c r="G203" s="12">
+        <v>27388</v>
+      </c>
+      <c r="H203" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I203" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E204" s="12">
+        <v>16</v>
+      </c>
+      <c r="F204" s="12">
+        <v>16</v>
+      </c>
+      <c r="G204" s="12">
+        <v>55712</v>
+      </c>
+      <c r="H204" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I204" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E205" s="12">
+        <v>40</v>
+      </c>
+      <c r="F205" s="12">
+        <v>32</v>
+      </c>
+      <c r="G205" s="12">
+        <v>298144</v>
+      </c>
+      <c r="H205" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I205" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E206" s="12">
+        <v>4</v>
+      </c>
+      <c r="F206" s="12">
+        <v>4</v>
+      </c>
+      <c r="G206" s="12">
+        <v>20188</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I206" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="E207" s="12">
+        <v>3</v>
+      </c>
+      <c r="F207" s="12">
+        <v>3</v>
+      </c>
+      <c r="G207" s="12">
+        <v>21396</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I207" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E208" s="12">
+        <v>50</v>
+      </c>
+      <c r="F208" s="12">
+        <v>50</v>
+      </c>
+      <c r="G208" s="12">
+        <v>199500</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I208" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="E209" s="12">
+        <v>3</v>
+      </c>
+      <c r="F209" s="12">
+        <v>3</v>
+      </c>
+      <c r="G209" s="12">
+        <v>80994</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I209" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E210" s="12">
+        <v>110</v>
+      </c>
+      <c r="F210" s="12">
+        <v>110</v>
+      </c>
+      <c r="G210" s="12">
+        <v>377740</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I210" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="E211" s="12">
+        <v>10</v>
+      </c>
+      <c r="F211" s="12">
+        <v>10</v>
+      </c>
+      <c r="G211" s="12">
+        <v>301080</v>
+      </c>
+      <c r="H211" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I211" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="E212" s="12">
+        <v>12</v>
+      </c>
+      <c r="F212" s="12">
+        <v>12</v>
+      </c>
+      <c r="G212" s="12">
+        <v>138936</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I212" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E213" s="12">
+        <v>3</v>
+      </c>
+      <c r="F213" s="12">
+        <v>3</v>
+      </c>
+      <c r="G213" s="12">
+        <v>109176</v>
+      </c>
+      <c r="H213" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I213" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E214" s="12">
+        <v>1</v>
+      </c>
+      <c r="F214" s="12">
+        <v>1</v>
+      </c>
+      <c r="G214" s="12">
+        <v>14006</v>
+      </c>
+      <c r="H214" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I214" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E215" s="12">
+        <v>1</v>
+      </c>
+      <c r="F215" s="12">
+        <v>1</v>
+      </c>
+      <c r="G215" s="12">
+        <v>57151</v>
+      </c>
+      <c r="H215" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I215" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E216" s="12">
+        <v>2</v>
+      </c>
+      <c r="F216" s="12">
+        <v>2</v>
+      </c>
+      <c r="G216" s="12">
+        <v>27844</v>
+      </c>
+      <c r="H216" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I216" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E217" s="12">
+        <v>10</v>
+      </c>
+      <c r="F217" s="12">
+        <v>7</v>
+      </c>
+      <c r="G217" s="12">
+        <v>106939</v>
+      </c>
+      <c r="H217" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I217" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E218" s="12">
+        <v>32</v>
+      </c>
+      <c r="F218" s="12">
+        <v>32</v>
+      </c>
+      <c r="G218" s="12">
+        <v>318880</v>
+      </c>
+      <c r="H218" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I218" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E219" s="12">
+        <v>10</v>
+      </c>
+      <c r="F219" s="12">
+        <v>10</v>
+      </c>
+      <c r="G219" s="12">
+        <v>364810</v>
+      </c>
+      <c r="H219" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I219" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E220" s="12">
+        <v>3</v>
+      </c>
+      <c r="F220" s="12">
+        <v>3</v>
+      </c>
+      <c r="G220" s="12">
+        <v>9327</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I220" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E221" s="12">
+        <v>20</v>
+      </c>
+      <c r="F221" s="12">
+        <v>20</v>
+      </c>
+      <c r="G221" s="12">
+        <v>456620</v>
+      </c>
+      <c r="H221" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I221" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E222" s="12">
+        <v>10</v>
+      </c>
+      <c r="F222" s="12">
+        <v>10</v>
+      </c>
+      <c r="G222" s="12">
+        <v>144440</v>
+      </c>
+      <c r="H222" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I222" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E223" s="12">
+        <v>10</v>
+      </c>
+      <c r="F223" s="12">
+        <v>10</v>
+      </c>
+      <c r="G223" s="12">
+        <v>168460</v>
+      </c>
+      <c r="H223" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I223" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E224" s="12">
+        <v>36</v>
+      </c>
+      <c r="F224" s="12">
+        <v>36</v>
+      </c>
+      <c r="G224" s="12">
+        <v>358740</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I224" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E225" s="12">
+        <v>16</v>
+      </c>
+      <c r="F225" s="12">
+        <v>16</v>
+      </c>
+      <c r="G225" s="12">
+        <v>108800</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I225" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E226" s="12">
+        <v>1</v>
+      </c>
+      <c r="F226" s="12">
+        <v>1</v>
+      </c>
+      <c r="G226" s="12">
+        <v>36105</v>
+      </c>
+      <c r="H226" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I226" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="E227" s="12">
+        <v>10</v>
+      </c>
+      <c r="F227" s="12">
+        <v>10</v>
+      </c>
+      <c r="G227" s="12">
+        <v>469590</v>
+      </c>
+      <c r="H227" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I227" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E228" s="12">
+        <v>10</v>
+      </c>
+      <c r="F228" s="12">
+        <v>10</v>
+      </c>
+      <c r="G228" s="12">
+        <v>464830</v>
+      </c>
+      <c r="H228" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I228" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E229" s="12">
+        <v>10</v>
+      </c>
+      <c r="F229" s="12">
+        <v>9</v>
+      </c>
+      <c r="G229" s="12">
+        <v>135108</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I229" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="E230" s="12">
+        <v>3</v>
+      </c>
+      <c r="F230" s="12">
+        <v>3</v>
+      </c>
+      <c r="G230" s="12">
+        <v>23058</v>
+      </c>
+      <c r="H230" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I230" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="14">
+        <v>45840</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="E231" s="12">
+        <v>120</v>
+      </c>
+      <c r="F231" s="12">
+        <v>96</v>
+      </c>
+      <c r="G231" s="12">
+        <v>414528</v>
+      </c>
+      <c r="H231" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I231" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H232" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I232" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/access/masanori.xlsx
+++ b/docs/access/masanori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sem3171\claude-test\docs\access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD6983-D130-4912-80E3-483B39A0441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19EFC6A-9155-4B55-8956-16F64D31E497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1590" windowWidth="19440" windowHeight="13920" activeTab="2" xr2:uid="{689D7969-6755-41E4-A731-8FE585C52E8C}"/>
   </bookViews>
@@ -2390,6 +2390,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>202486</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>227400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B72859-B9E6-9C26-7BEB-792CDA12E5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10312400" y="4800600"/>
+          <a:ext cx="5714286" cy="9600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8221,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B9BEB-0721-430F-931B-025336487213}">
   <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15086,5 +15135,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>